--- a/Elektronik/2017/Stückliste.xlsx
+++ b/Elektronik/2017/Stückliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -90,15 +90,9 @@
     <t>http://ch.farnell.com/kemet/c0603c104k4rac7081/kondensator-mlcc-x7r-0-1uf-16v/dp/2522597RL</t>
   </si>
   <si>
-    <t>http://ch.farnell.com/tdk/c2012x5r1a106m125ab/kondensator-mlcc-x5r-10uf-10v/dp/2525130RL</t>
-  </si>
-  <si>
     <t>OR-Gate</t>
   </si>
   <si>
-    <t>http://ch.farnell.com/on-semiconductor/nc7sz332p6x/ic-sm-logik-nc7sz-or-gate/dp/1607793RL</t>
-  </si>
-  <si>
     <t>SC-70</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>ch.farnell.com/multicomp/mcwr06x1500ftl/dickschichtwiderstand-150-ohm/dp/2447255RL</t>
   </si>
   <si>
-    <t>http://ch.farnell.com/multicomp/usb-b-s-ra/unknown/dp/1626770</t>
-  </si>
-  <si>
     <t>USB Stecker</t>
   </si>
   <si>
@@ -270,9 +261,6 @@
     <t>SOD-80C</t>
   </si>
   <si>
-    <t>http://ch.farnell.com/nexperia/bzv55-c4v7-115/zener-diode-4-7v-0-5w-sod-80c/dp/2319333</t>
-  </si>
-  <si>
     <t>http://ch.farnell.com/bourns/cd0603-b0340r/schottky-diode-1fach-40v-0603/dp/2807975</t>
   </si>
   <si>
@@ -285,9 +273,6 @@
     <t>Shottky Diode</t>
   </si>
   <si>
-    <t>http://ch.farnell.com/broadcom-limited/asmt-ytd7-0aa02/led-plcc6-rgb-650-1900-384-mcd/dp/2368162RL</t>
-  </si>
-  <si>
     <t>RGB-LED</t>
   </si>
   <si>
@@ -343,6 +328,27 @@
   </si>
   <si>
     <t>http://ch.farnell.com/multicomp/mcwr06x1200ftl/dickschichtwiderstand-120-ohm/dp/2447240</t>
+  </si>
+  <si>
+    <t>https://www.distrelec.ch/de/piezo-element-murata-7bb-27/p/13787058?q=7BB-27-4&amp;page=1&amp;origPos=1&amp;origPageSize=25&amp;simi=99.65&amp;no-cache=true</t>
+  </si>
+  <si>
+    <t>http://ch.farnell.com/murata/grm21br61c106ke15k/kondensator-mlcc-x5r-10uf-16v/dp/2611940</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>http://ch.farnell.com/on-semiconductor/nc7sz332p6x/ic-sm-logik-nc7sz-or-gate/dp/1607793</t>
+  </si>
+  <si>
+    <t>http://ch.farnell.com/nexperia/bzv55-c4v7-115/zener-diode-0-5w-4-7v-sod-80c/dp/1097200RL</t>
+  </si>
+  <si>
+    <t>http://ch.farnell.com/broadcom-limited/asmt-ytd7-0aa02/led-plcc6-rgb-650-1900-384-mcd/dp/2368162</t>
+  </si>
+  <si>
+    <t>http://ch.farnell.com/multicomp/usb-b-s-ra/usb-2-0-buchse-typ-b-tht/dp/2112373?MER=sy-me-pd-mi-alte</t>
   </si>
 </sst>
 </file>
@@ -705,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +747,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -761,7 +767,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -796,7 +802,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -815,16 +821,16 @@
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -835,293 +841,293 @@
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
+      <c r="F7" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
-        <v>41</v>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
         <v>45</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
-        <v>57</v>
+      <c r="F13" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
         <v>58</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s">
-        <v>85</v>
+      <c r="F16" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
-        <v>102</v>
+      <c r="F19" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
-        <v>108</v>
+      <c r="F20" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1129,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1140,13 +1146,13 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,13 +1160,13 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1168,13 +1174,13 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1182,13 +1188,13 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1196,13 +1202,13 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -1210,13 +1216,13 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -1224,24 +1230,39 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F17" r:id="rId4"/>
+    <hyperlink ref="F29" r:id="rId3"/>
+    <hyperlink ref="F30" r:id="rId4"/>
+    <hyperlink ref="F31" r:id="rId5"/>
+    <hyperlink ref="F32" r:id="rId6"/>
+    <hyperlink ref="F34" r:id="rId7"/>
+    <hyperlink ref="F35" r:id="rId8"/>
+    <hyperlink ref="F5" r:id="rId9"/>
+    <hyperlink ref="F6" r:id="rId10"/>
+    <hyperlink ref="F8" r:id="rId11"/>
+    <hyperlink ref="F9" r:id="rId12"/>
+    <hyperlink ref="F10" r:id="rId13"/>
+    <hyperlink ref="F13" r:id="rId14"/>
+    <hyperlink ref="F14" r:id="rId15"/>
+    <hyperlink ref="F16" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/Elektronik/2017/Stückliste.xlsx
+++ b/Elektronik/2017/Stückliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>http://ch.farnell.com/multicomp/usb-b-s-ra/usb-2-0-buchse-typ-b-tht/dp/2112373?MER=sy-me-pd-mi-alte</t>
+  </si>
+  <si>
+    <t>2 Pins</t>
   </si>
 </sst>
 </file>
@@ -711,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,6 +1128,23 @@
         <v>103</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
@@ -1151,6 +1171,9 @@
       <c r="D29" t="s">
         <v>70</v>
       </c>
+      <c r="E29">
+        <v>0.378</v>
+      </c>
       <c r="F29" s="4" t="s">
         <v>64</v>
       </c>
@@ -1165,6 +1188,9 @@
       <c r="D30" t="s">
         <v>71</v>
       </c>
+      <c r="E30">
+        <v>0.25919999999999999</v>
+      </c>
       <c r="F30" s="4" t="s">
         <v>65</v>
       </c>
@@ -1179,6 +1205,9 @@
       <c r="D31" t="s">
         <v>72</v>
       </c>
+      <c r="E31">
+        <v>0.50760000000000005</v>
+      </c>
       <c r="F31" s="4" t="s">
         <v>66</v>
       </c>
@@ -1193,6 +1222,9 @@
       <c r="D32" t="s">
         <v>73</v>
       </c>
+      <c r="E32">
+        <v>1.22</v>
+      </c>
       <c r="F32" s="4" t="s">
         <v>67</v>
       </c>
@@ -1207,6 +1239,9 @@
       <c r="D33" t="s">
         <v>74</v>
       </c>
+      <c r="E33">
+        <v>0.97199999999999998</v>
+      </c>
       <c r="F33" s="4" t="s">
         <v>104</v>
       </c>
@@ -1221,6 +1256,9 @@
       <c r="D34" t="s">
         <v>75</v>
       </c>
+      <c r="E34">
+        <v>0.69120000000000004</v>
+      </c>
       <c r="F34" s="4" t="s">
         <v>68</v>
       </c>
@@ -1234,6 +1272,9 @@
       </c>
       <c r="D35" t="s">
         <v>76</v>
+      </c>
+      <c r="E35">
+        <v>1.3</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>69</v>
@@ -1260,9 +1301,11 @@
     <hyperlink ref="F18" r:id="rId17"/>
     <hyperlink ref="F19" r:id="rId18"/>
     <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F33" r:id="rId20"/>
+    <hyperlink ref="F21" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/Elektronik/2017/Stückliste.xlsx
+++ b/Elektronik/2017/Stückliste.xlsx
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1157,7 @@
       <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1303,9 +1303,10 @@
     <hyperlink ref="F20" r:id="rId19"/>
     <hyperlink ref="F33" r:id="rId20"/>
     <hyperlink ref="F21" r:id="rId21"/>
+    <hyperlink ref="F28" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/Elektronik/2017/Stückliste.xlsx
+++ b/Elektronik/2017/Stückliste.xlsx
@@ -714,13 +714,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
